--- a/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
+++ b/InputData/trans/BCDTRtSY/BAU Cargo Dist Transported Relative to Start Yr.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\World Resources Institute\TRAC City - HK 2050 is now\EPS HK 2.0\eps-hongkong-develop\InputData\trans\BCDTRtSY\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Documents\eps-hongkong\InputData\trans\BCDTRtSY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="11_F38115EF335BB3F3DFF8AD42D1B3136DDB95550E" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C493DB9E-4B6F-4DD2-B7A5-9EDF7A32E6F1}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="742"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -36,7 +35,7 @@
     <definedName name="ti_tbl_69" localSheetId="4">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -250,7 +249,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="7">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -1151,160 +1150,160 @@
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="20% - Accent2 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="20% - Accent3 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="20% - Accent4 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="20% - Accent5 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="20% - Accent6 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="40% - Accent1 2" xfId="14" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="40% - Accent2 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="40% - Accent3 2" xfId="16" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="40% - Accent4 2" xfId="17" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="40% - Accent5 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
-    <cellStyle name="40% - Accent6 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
-    <cellStyle name="60% - Accent1 2" xfId="20" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
-    <cellStyle name="60% - Accent2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
-    <cellStyle name="60% - Accent3 2" xfId="22" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
-    <cellStyle name="60% - Accent4 2" xfId="23" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
-    <cellStyle name="60% - Accent5 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
-    <cellStyle name="60% - Accent6 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
-    <cellStyle name="Accent1 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
-    <cellStyle name="Accent2 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
-    <cellStyle name="Accent3 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
-    <cellStyle name="Accent4 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="Accent5 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
-    <cellStyle name="Accent6 2" xfId="31" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
-    <cellStyle name="Bad 2" xfId="32" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
-    <cellStyle name="Body: normal cell" xfId="4" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
-    <cellStyle name="Body: normal cell 2" xfId="33" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
-    <cellStyle name="Calculation 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
-    <cellStyle name="Check Cell 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
-    <cellStyle name="Column heading" xfId="36" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
-    <cellStyle name="Comma 2" xfId="37" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
-    <cellStyle name="Comma 2 2" xfId="38" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
-    <cellStyle name="Comma 3" xfId="39" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
-    <cellStyle name="Comma 4" xfId="40" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
-    <cellStyle name="Comma 5" xfId="41" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
-    <cellStyle name="Comma 6" xfId="42" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
-    <cellStyle name="Comma 7" xfId="43" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
-    <cellStyle name="Comma 8" xfId="44" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
-    <cellStyle name="Corner heading" xfId="45" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
-    <cellStyle name="Currency 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="Currency 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
-    <cellStyle name="Currency 3 2" xfId="48" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
-    <cellStyle name="Data" xfId="49" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
-    <cellStyle name="Data 2" xfId="50" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
-    <cellStyle name="Data no deci" xfId="51" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="Data Superscript" xfId="52" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="53" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
-    <cellStyle name="Explanatory Text 2" xfId="54" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="6" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="Footnotes: top row" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="Footnotes: top row 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="Good 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
-    <cellStyle name="Header: bottom row" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
-    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
-    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
-    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
-    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
-    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
-    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
-    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
-    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
-    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
-    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
-    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="8"/>
+    <cellStyle name="20% - Accent2 2" xfId="9"/>
+    <cellStyle name="20% - Accent3 2" xfId="10"/>
+    <cellStyle name="20% - Accent4 2" xfId="11"/>
+    <cellStyle name="20% - Accent5 2" xfId="12"/>
+    <cellStyle name="20% - Accent6 2" xfId="13"/>
+    <cellStyle name="40% - Accent1 2" xfId="14"/>
+    <cellStyle name="40% - Accent2 2" xfId="15"/>
+    <cellStyle name="40% - Accent3 2" xfId="16"/>
+    <cellStyle name="40% - Accent4 2" xfId="17"/>
+    <cellStyle name="40% - Accent5 2" xfId="18"/>
+    <cellStyle name="40% - Accent6 2" xfId="19"/>
+    <cellStyle name="60% - Accent1 2" xfId="20"/>
+    <cellStyle name="60% - Accent2 2" xfId="21"/>
+    <cellStyle name="60% - Accent3 2" xfId="22"/>
+    <cellStyle name="60% - Accent4 2" xfId="23"/>
+    <cellStyle name="60% - Accent5 2" xfId="24"/>
+    <cellStyle name="60% - Accent6 2" xfId="25"/>
+    <cellStyle name="Accent1 2" xfId="26"/>
+    <cellStyle name="Accent2 2" xfId="27"/>
+    <cellStyle name="Accent3 2" xfId="28"/>
+    <cellStyle name="Accent4 2" xfId="29"/>
+    <cellStyle name="Accent5 2" xfId="30"/>
+    <cellStyle name="Accent6 2" xfId="31"/>
+    <cellStyle name="Bad 2" xfId="32"/>
+    <cellStyle name="Body: normal cell" xfId="4"/>
+    <cellStyle name="Body: normal cell 2" xfId="33"/>
+    <cellStyle name="Calculation 2" xfId="34"/>
+    <cellStyle name="Check Cell 2" xfId="35"/>
+    <cellStyle name="Column heading" xfId="36"/>
+    <cellStyle name="Comma 2" xfId="37"/>
+    <cellStyle name="Comma 2 2" xfId="38"/>
+    <cellStyle name="Comma 3" xfId="39"/>
+    <cellStyle name="Comma 4" xfId="40"/>
+    <cellStyle name="Comma 5" xfId="41"/>
+    <cellStyle name="Comma 6" xfId="42"/>
+    <cellStyle name="Comma 7" xfId="43"/>
+    <cellStyle name="Comma 8" xfId="44"/>
+    <cellStyle name="Corner heading" xfId="45"/>
+    <cellStyle name="Currency 2" xfId="46"/>
+    <cellStyle name="Currency 3" xfId="47"/>
+    <cellStyle name="Currency 3 2" xfId="48"/>
+    <cellStyle name="Data" xfId="49"/>
+    <cellStyle name="Data 2" xfId="50"/>
+    <cellStyle name="Data no deci" xfId="51"/>
+    <cellStyle name="Data Superscript" xfId="52"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="53"/>
+    <cellStyle name="Explanatory Text 2" xfId="54"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="6"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="55"/>
+    <cellStyle name="Footnotes: top row" xfId="2"/>
+    <cellStyle name="Footnotes: top row 2" xfId="56"/>
+    <cellStyle name="Good 2" xfId="57"/>
+    <cellStyle name="Header: bottom row" xfId="5"/>
+    <cellStyle name="Header: bottom row 2" xfId="58"/>
+    <cellStyle name="Heading 1 2" xfId="59"/>
+    <cellStyle name="Heading 2 2" xfId="60"/>
+    <cellStyle name="Heading 3 2" xfId="61"/>
+    <cellStyle name="Heading 4 2" xfId="62"/>
+    <cellStyle name="Hed Side" xfId="63"/>
+    <cellStyle name="Hed Side 2" xfId="64"/>
+    <cellStyle name="Hed Side bold" xfId="65"/>
+    <cellStyle name="Hed Side Indent" xfId="66"/>
+    <cellStyle name="Hed Side Regular" xfId="67"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
+    <cellStyle name="Hed Top" xfId="69"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
-    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
-    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
-    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="Hyperlink 2" xfId="72"/>
+    <cellStyle name="Input 2" xfId="73"/>
+    <cellStyle name="Linked Cell 2" xfId="74"/>
+    <cellStyle name="Neutral 2" xfId="75"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
-    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
-    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
-    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
-    <cellStyle name="Normal 3" xfId="80" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
-    <cellStyle name="Normal 3 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
-    <cellStyle name="Normal 3 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
-    <cellStyle name="Normal 3 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
-    <cellStyle name="Normal 3 3" xfId="85" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
-    <cellStyle name="Normal 3 3 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="87" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
-    <cellStyle name="Normal 3 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
-    <cellStyle name="Normal 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
-    <cellStyle name="Normal 3 4 2" xfId="90" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
-    <cellStyle name="Normal 3 5" xfId="91" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
-    <cellStyle name="Normal 3 6" xfId="92" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
-    <cellStyle name="Normal 3 7" xfId="93" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
-    <cellStyle name="Normal 4" xfId="94" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
-    <cellStyle name="Normal 4 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
-    <cellStyle name="Normal 4 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="97" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
-    <cellStyle name="Normal 4 2 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
-    <cellStyle name="Normal 4 3" xfId="99" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
-    <cellStyle name="Normal 4 3 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="101" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
-    <cellStyle name="Normal 4 3 3" xfId="102" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
-    <cellStyle name="Normal 4 4" xfId="103" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
-    <cellStyle name="Normal 4 4 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
-    <cellStyle name="Normal 4 5" xfId="105" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
-    <cellStyle name="Normal 4 6" xfId="106" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
-    <cellStyle name="Normal 4 7" xfId="107" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
-    <cellStyle name="Normal 5" xfId="108" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
-    <cellStyle name="Normal 5 2" xfId="109" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
-    <cellStyle name="Normal 5 3" xfId="110" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
-    <cellStyle name="Normal 6" xfId="111" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
-    <cellStyle name="Normal 6 2" xfId="112" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
-    <cellStyle name="Normal 7" xfId="113" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
-    <cellStyle name="Normal 7 2" xfId="114" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
-    <cellStyle name="Normal 8" xfId="115" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
-    <cellStyle name="Normal 9" xfId="116" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
-    <cellStyle name="Note 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
-    <cellStyle name="Note 2 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
-    <cellStyle name="Output 2" xfId="119" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
-    <cellStyle name="Parent row" xfId="3" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
-    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
-    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
-    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
-    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
-    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
-    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
-    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
-    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
-    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
-    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
-    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
-    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
-    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
-    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
-    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
-    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
-    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
-    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
-    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
-    <cellStyle name="Table title" xfId="7" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
-    <cellStyle name="Table title 2" xfId="139" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
-    <cellStyle name="Title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
-    <cellStyle name="Title Text" xfId="141" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
-    <cellStyle name="Title Text 1" xfId="142" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
-    <cellStyle name="Title Text 2" xfId="143" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
-    <cellStyle name="Title-1" xfId="144" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
-    <cellStyle name="Title-2" xfId="145" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
-    <cellStyle name="Title-3" xfId="146" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
-    <cellStyle name="Total 2" xfId="147" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
-    <cellStyle name="Warning Text 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
-    <cellStyle name="Wrap" xfId="149" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
-    <cellStyle name="Wrap Bold" xfId="150" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
-    <cellStyle name="Wrap Title" xfId="151" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="152" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Normal 10" xfId="76"/>
+    <cellStyle name="Normal 11" xfId="77"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="78"/>
+    <cellStyle name="Normal 2 3" xfId="79"/>
+    <cellStyle name="Normal 3" xfId="80"/>
+    <cellStyle name="Normal 3 2" xfId="81"/>
+    <cellStyle name="Normal 3 2 2" xfId="82"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="83"/>
+    <cellStyle name="Normal 3 2 3" xfId="84"/>
+    <cellStyle name="Normal 3 3" xfId="85"/>
+    <cellStyle name="Normal 3 3 2" xfId="86"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="87"/>
+    <cellStyle name="Normal 3 3 3" xfId="88"/>
+    <cellStyle name="Normal 3 4" xfId="89"/>
+    <cellStyle name="Normal 3 4 2" xfId="90"/>
+    <cellStyle name="Normal 3 5" xfId="91"/>
+    <cellStyle name="Normal 3 6" xfId="92"/>
+    <cellStyle name="Normal 3 7" xfId="93"/>
+    <cellStyle name="Normal 4" xfId="94"/>
+    <cellStyle name="Normal 4 2" xfId="95"/>
+    <cellStyle name="Normal 4 2 2" xfId="96"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="97"/>
+    <cellStyle name="Normal 4 2 3" xfId="98"/>
+    <cellStyle name="Normal 4 3" xfId="99"/>
+    <cellStyle name="Normal 4 3 2" xfId="100"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="101"/>
+    <cellStyle name="Normal 4 3 3" xfId="102"/>
+    <cellStyle name="Normal 4 4" xfId="103"/>
+    <cellStyle name="Normal 4 4 2" xfId="104"/>
+    <cellStyle name="Normal 4 5" xfId="105"/>
+    <cellStyle name="Normal 4 6" xfId="106"/>
+    <cellStyle name="Normal 4 7" xfId="107"/>
+    <cellStyle name="Normal 5" xfId="108"/>
+    <cellStyle name="Normal 5 2" xfId="109"/>
+    <cellStyle name="Normal 5 3" xfId="110"/>
+    <cellStyle name="Normal 6" xfId="111"/>
+    <cellStyle name="Normal 6 2" xfId="112"/>
+    <cellStyle name="Normal 7" xfId="113"/>
+    <cellStyle name="Normal 7 2" xfId="114"/>
+    <cellStyle name="Normal 8" xfId="115"/>
+    <cellStyle name="Normal 9" xfId="116"/>
+    <cellStyle name="Note 2" xfId="117"/>
+    <cellStyle name="Note 2 2" xfId="118"/>
+    <cellStyle name="Output 2" xfId="119"/>
+    <cellStyle name="Parent row" xfId="3"/>
+    <cellStyle name="Parent row 2" xfId="120"/>
+    <cellStyle name="Percent 2" xfId="121"/>
+    <cellStyle name="Percent 2 2" xfId="122"/>
+    <cellStyle name="Percent 3" xfId="123"/>
+    <cellStyle name="Percent 3 2" xfId="124"/>
+    <cellStyle name="Percent 4" xfId="125"/>
+    <cellStyle name="Reference" xfId="126"/>
+    <cellStyle name="Row heading" xfId="127"/>
+    <cellStyle name="Source Hed" xfId="128"/>
+    <cellStyle name="Source Letter" xfId="129"/>
+    <cellStyle name="Source Superscript" xfId="130"/>
+    <cellStyle name="Source Superscript 2" xfId="131"/>
+    <cellStyle name="Source Text" xfId="132"/>
+    <cellStyle name="Source Text 2" xfId="133"/>
+    <cellStyle name="State" xfId="134"/>
+    <cellStyle name="Superscript" xfId="135"/>
+    <cellStyle name="Table Data" xfId="136"/>
+    <cellStyle name="Table Head Top" xfId="137"/>
+    <cellStyle name="Table Hed Side" xfId="138"/>
+    <cellStyle name="Table title" xfId="7"/>
+    <cellStyle name="Table title 2" xfId="139"/>
+    <cellStyle name="Title 2" xfId="140"/>
+    <cellStyle name="Title Text" xfId="141"/>
+    <cellStyle name="Title Text 1" xfId="142"/>
+    <cellStyle name="Title Text 2" xfId="143"/>
+    <cellStyle name="Title-1" xfId="144"/>
+    <cellStyle name="Title-2" xfId="145"/>
+    <cellStyle name="Title-3" xfId="146"/>
+    <cellStyle name="Total 2" xfId="147"/>
+    <cellStyle name="Warning Text 2" xfId="148"/>
+    <cellStyle name="Wrap" xfId="149"/>
+    <cellStyle name="Wrap Bold" xfId="150"/>
+    <cellStyle name="Wrap Title" xfId="151"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="152"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1476,23 +1475,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1528,23 +1510,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1720,17 +1685,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFC6E0B4"/>
   </sheetPr>
   <dimension ref="A1:A8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
@@ -1769,7 +1734,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
@@ -1777,16 +1742,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3955775-2F14-4E2D-AD91-38954BF95459}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BK107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView topLeftCell="Y25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AC4" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="7" max="7" width="17.3984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -5417,17 +5382,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AK10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="37" width="16.28515625" style="2" customWidth="1"/>
+    <col min="3" max="37" width="16.265625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" s="11" customFormat="1">
@@ -5910,1009 +5875,982 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AL14"/>
+  <dimension ref="A1:AK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X3" sqref="X3"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="3" width="11.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="38" width="10.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="37" width="10.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38">
+    <row r="1" spans="1:37">
       <c r="B1">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C1">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="D1">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E1">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F1">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I1">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J1">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K1">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L1">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M1">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="N1">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="O1">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="P1">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="Q1">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R1">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="S1">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="T1">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="U1">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="V1">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="W1">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="X1">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Y1">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Z1">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AA1">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AB1">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AC1">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AD1">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AE1">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AF1">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AG1">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AH1">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AI1">
-        <v>2049</v>
-      </c>
-      <c r="AJ1">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:38">
+    <row r="2" spans="1:37">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C2">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D2">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E2">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F2">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G2">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H2">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I2">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J2">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K2">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L2">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M2">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N2">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O2">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P2">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q2">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R2">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S2">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T2">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U2">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V2">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W2">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X2">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y2">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z2">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA2">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB2">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC2">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD2">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE2">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF2">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG2">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH2">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI2">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ2">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38">
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:37">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D3">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E3">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F3">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G3">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H3">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I3">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J3">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K3">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L3">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M3">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N3">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O3">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P3">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q3">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R3">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S3">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T3">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U3">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V3">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W3">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X3">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y3">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z3">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA3">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB3">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC3">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD3">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE3">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF3">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG3">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH3">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI3">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ3">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="4" spans="1:38">
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="4" spans="1:37">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D4">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E4">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F4">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G4">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H4">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I4">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J4">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K4">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L4">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M4">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N4">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O4">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P4">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q4">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R4">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S4">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T4">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U4">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V4">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W4">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X4">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y4">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z4">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA4">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB4">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC4">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD4">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE4">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF4">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG4">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH4">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI4">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ4">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="5" spans="1:38">
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="5" spans="1:37">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D5">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E5">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F5">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G5">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H5">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I5">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J5">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K5">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L5">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M5">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N5">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O5">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P5">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q5">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R5">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S5">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T5">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U5">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V5">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W5">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X5">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y5">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z5">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA5">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB5">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC5">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD5">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE5">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF5">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG5">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH5">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI5">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ5">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="6" spans="1:38">
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="6" spans="1:37">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D6">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E6">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F6">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G6">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H6">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I6">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J6">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K6">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L6">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M6">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N6">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O6">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P6">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q6">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R6">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S6">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T6">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U6">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V6">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W6">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X6">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y6">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z6">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA6">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB6">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC6">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD6">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE6">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF6">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG6">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH6">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI6">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ6">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:38">
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:37">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <f>'Lawrence''s projections'!N$21/'Lawrence''s projections'!$N$21</f>
+        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$O$21</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>'Lawrence''s projections'!O$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0227053788099791</v>
+        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0220264099488201</v>
       </c>
       <c r="D7">
-        <f>'Lawrence''s projections'!P$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0452319067405111</v>
+        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0431328819370915</v>
       </c>
       <c r="E7">
-        <f>'Lawrence''s projections'!Q$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0668176091706185</v>
+        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0640253849727284</v>
       </c>
       <c r="F7">
-        <f>'Lawrence''s projections'!R$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.0881844844019679</v>
+        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.0837880575739836</v>
       </c>
       <c r="G7">
-        <f>'Lawrence''s projections'!S$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1083958759709325</v>
+        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1029787415533792</v>
       </c>
       <c r="H7">
-        <f>'Lawrence''s projections'!T$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1280222916997029</v>
+        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1215233168657277</v>
       </c>
       <c r="I7">
-        <f>'Lawrence''s projections'!U$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1469879286193883</v>
+        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1390296670164499</v>
       </c>
       <c r="J7">
-        <f>'Lawrence''s projections'!V$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1648917670818628</v>
+        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1557627315292336</v>
       </c>
       <c r="K7">
-        <f>'Lawrence''s projections'!W$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1820047621630612</v>
+        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1715888410388364</v>
       </c>
       <c r="L7">
-        <f>'Lawrence''s projections'!X$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.1981902094841677</v>
+        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.1867293596556736</v>
       </c>
       <c r="M7">
-        <f>'Lawrence''s projections'!Y$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2136744993115798</v>
+        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2016022853752932</v>
       </c>
       <c r="N7">
-        <f>'Lawrence''s projections'!Z$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2288851204436759</v>
+        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2160183145531314</v>
       </c>
       <c r="O7">
-        <f>'Lawrence''s projections'!AA$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2436284710249326</v>
+        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2297665850376955</v>
       </c>
       <c r="P7">
-        <f>'Lawrence''s projections'!AB$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2576889011988308</v>
+        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2429867277294868</v>
       </c>
       <c r="Q7">
-        <f>'Lawrence''s projections'!AC$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2712092122383614</v>
+        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2557172738827973</v>
       </c>
       <c r="R7">
-        <f>'Lawrence''s projections'!AD$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.2842288102645407</v>
+        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2680576072116967</v>
       </c>
       <c r="S7">
-        <f>'Lawrence''s projections'!AE$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.296849335536314</v>
+        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2797625790544112</v>
       </c>
       <c r="T7">
-        <f>'Lawrence''s projections'!AF$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3088200731986774</v>
+        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.2906638508555763</v>
       </c>
       <c r="U7">
-        <f>'Lawrence''s projections'!AG$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3199688625055988</v>
+        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.300850624020206</v>
       </c>
       <c r="V7">
-        <f>'Lawrence''s projections'!AH$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3303869302137827</v>
+        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.310301428645074</v>
       </c>
       <c r="W7">
-        <f>'Lawrence''s projections'!AI$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3400523189377174</v>
+        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3189462610641514</v>
       </c>
       <c r="X7">
-        <f>'Lawrence''s projections'!AJ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3488934355516187</v>
+        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3266669498666452</v>
       </c>
       <c r="Y7">
-        <f>'Lawrence''s projections'!AK$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.356789425518047</v>
+        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3335749052028636</v>
       </c>
       <c r="Z7">
-        <f>'Lawrence''s projections'!AL$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3638542285969768</v>
+        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3395993611657062</v>
       </c>
       <c r="AA7">
-        <f>'Lawrence''s projections'!AM$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3700154721145799</v>
+        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.344801827472496</v>
       </c>
       <c r="AB7">
-        <f>'Lawrence''s projections'!AN$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3753360623896114</v>
+        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3493757798776458</v>
       </c>
       <c r="AC7">
-        <f>'Lawrence''s projections'!AO$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3800138681167788</v>
+        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.353273094467478</v>
       </c>
       <c r="AD7">
-        <f>'Lawrence''s projections'!AP$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3839996727107149</v>
+        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3564092196804265</v>
       </c>
       <c r="AE7">
-        <f>'Lawrence''s projections'!AQ$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3872070048346188</v>
+        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3588319442724037</v>
       </c>
       <c r="AF7">
-        <f>'Lawrence''s projections'!AR$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3896847383062092</v>
+        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3604196217879319</v>
       </c>
       <c r="AG7">
-        <f>'Lawrence''s projections'!AS$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3913084646411555</v>
+        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3613643973287342</v>
       </c>
       <c r="AH7">
-        <f>'Lawrence''s projections'!AT$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392274691668502</v>
+        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3615560203800181</v>
       </c>
       <c r="AI7">
-        <f>'Lawrence''s projections'!AU$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.392470665593754</v>
-      </c>
-      <c r="AJ7">
-        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$N$21</f>
-        <v>1.3919192618611231</v>
-      </c>
-    </row>
-    <row r="8" spans="1:38">
-      <c r="L8" s="8"/>
-    </row>
-    <row r="12" spans="1:38">
-      <c r="AL12" s="8"/>
-    </row>
-    <row r="14" spans="1:38">
-      <c r="F14" s="9"/>
+        <f>'Lawrence''s projections'!AV$21/'Lawrence''s projections'!$O$21</f>
+        <v>1.3610168585216218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:37">
+      <c r="K8" s="8"/>
+    </row>
+    <row r="12" spans="1:37">
+      <c r="AK12" s="8"/>
+    </row>
+    <row r="14" spans="1:37">
+      <c r="E14" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6920,1014 +6858,987 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AI7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="X5" sqref="X5"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="8" max="18" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="23" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="32" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.59765625" customWidth="1"/>
+    <col min="5" max="5" width="12.265625" customWidth="1"/>
+    <col min="6" max="6" width="14.73046875" customWidth="1"/>
+    <col min="7" max="17" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="29" max="31" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.73046875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="9.73046875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="10.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36">
+    <row r="1" spans="1:35">
       <c r="B1">
-        <v>2016</v>
-      </c>
-      <c r="C1">
         <v>2017</v>
       </c>
+      <c r="C1" s="9">
+        <v>2018</v>
+      </c>
       <c r="D1" s="9">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="E1" s="9">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F1" s="9">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="G1" s="9">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="H1" s="9">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="I1" s="9">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="J1" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="K1" s="9">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="L1" s="9">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="M1" s="9">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="N1" s="9">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="O1" s="9">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="P1" s="9">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="Q1" s="9">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="R1" s="9">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="S1" s="9">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="T1" s="9">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="U1" s="9">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="V1" s="9">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="W1" s="9">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="X1" s="9">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="Y1" s="9">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="Z1" s="9">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="AA1" s="9">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="AB1" s="9">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="AC1" s="9">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="AD1" s="9">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="AE1" s="9">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AF1" s="9">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AG1" s="9">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AH1" s="9">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="AI1" s="9">
-        <v>2049</v>
-      </c>
-      <c r="AJ1" s="9">
         <v>2050</v>
       </c>
     </row>
-    <row r="2" spans="1:36">
+    <row r="2" spans="1:35">
       <c r="A2" t="s">
         <v>58</v>
       </c>
       <c r="B2">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C2">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D2">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E2">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F2">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G2">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H2">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I2">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J2">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K2">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L2">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M2">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N2">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O2">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P2">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q2">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R2">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S2">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T2">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U2">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V2">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W2">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X2">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y2">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z2">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA2">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB2">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC2">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD2">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE2">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF2">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG2">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH2">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI2">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ2">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:36">
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
       <c r="A3" t="s">
         <v>59</v>
       </c>
       <c r="B3">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C3">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D3">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E3">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F3">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G3">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H3">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I3">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J3">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K3">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L3">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M3">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N3">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O3">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P3">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q3">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R3">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S3">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T3">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U3">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V3">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W3">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X3">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y3">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z3">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA3">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB3">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC3">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD3">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE3">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF3">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG3">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH3">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI3">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ3">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
-      </c>
-    </row>
-    <row r="4" spans="1:36">
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
       <c r="A4" t="s">
         <v>60</v>
       </c>
       <c r="B4">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C4">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D4">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E4">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F4">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G4">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H4">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I4">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J4">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K4">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L4">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M4">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N4">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O4">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P4">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q4">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R4">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S4">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T4">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U4">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V4">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W4">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X4">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y4">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z4">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA4">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB4">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC4">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD4">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE4">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF4">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG4">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH4">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI4">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ4">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36">
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
       <c r="A5" t="s">
         <v>61</v>
       </c>
       <c r="B5">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C5">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D5">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E5">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F5">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G5">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H5">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I5">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J5">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K5">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L5">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M5">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N5">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O5">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P5">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q5">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R5">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S5">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T5">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U5">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V5">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W5">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X5">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y5">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z5">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA5">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB5">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC5">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD5">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE5">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF5">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG5">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH5">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI5">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ5">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
-      </c>
-    </row>
-    <row r="6" spans="1:36">
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
       <c r="A6" t="s">
         <v>62</v>
       </c>
       <c r="B6">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C6">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D6">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E6">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F6">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G6">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H6">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I6">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J6">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K6">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L6">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M6">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N6">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O6">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P6">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q6">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R6">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S6">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T6">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U6">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V6">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W6">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X6">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y6">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z6">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA6">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB6">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC6">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD6">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE6">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF6">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG6">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH6">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI6">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ6">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
-      </c>
-    </row>
-    <row r="7" spans="1:36">
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
       <c r="A7" t="s">
         <v>63</v>
       </c>
       <c r="B7">
-        <f>'Lawrence''s projections'!AC$78/'Lawrence''s projections'!$AC$78</f>
+        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AD$78</f>
         <v>1</v>
       </c>
       <c r="C7">
-        <f>'Lawrence''s projections'!AD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0094319399785638</v>
+        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0254731137733994</v>
       </c>
       <c r="D7">
-        <f>'Lawrence''s projections'!AE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.035145314632141</v>
+        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0295875842342777</v>
       </c>
       <c r="E7">
-        <f>'Lawrence''s projections'!AF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0392985925314497</v>
+        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0335919937257501</v>
       </c>
       <c r="F7">
-        <f>'Lawrence''s projections'!AG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0433407713728955</v>
+        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0364701426393559</v>
       </c>
       <c r="G7">
-        <f>'Lawrence''s projections'!AH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0462460668143039</v>
+        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0412877485270398</v>
       </c>
       <c r="H7">
-        <f>'Lawrence''s projections'!AI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0511091120715605</v>
+        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.044545574784332</v>
       </c>
       <c r="I7">
-        <f>'Lawrence''s projections'!AJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0543976659505723</v>
+        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.047737581771587</v>
       </c>
       <c r="J7">
-        <f>'Lawrence''s projections'!AK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0576197797561422</v>
+        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0508662374010496</v>
       </c>
       <c r="K7">
-        <f>'Lawrence''s projections'!AL$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0607779446777155</v>
+        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0534157472310199</v>
       </c>
       <c r="L7">
-        <f>'Lawrence''s projections'!AM$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0633515013313768</v>
+        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0565467330625604</v>
       </c>
       <c r="M7">
-        <f>'Lawrence''s projections'!AN$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0665120184333541</v>
+        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0591243937010546</v>
       </c>
       <c r="N7">
-        <f>'Lawrence''s projections'!AO$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0691139914122756</v>
+        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0616682857670889</v>
       </c>
       <c r="O7">
-        <f>'Lawrence''s projections'!AP$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0716818773155889</v>
+        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0641797417517527</v>
       </c>
       <c r="P7">
-        <f>'Lawrence''s projections'!AQ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0742170212023587</v>
+        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0665441386788113</v>
       </c>
       <c r="Q7">
-        <f>'Lawrence''s projections'!AR$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0766037189793187</v>
+        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.069110539105232</v>
       </c>
       <c r="R7">
-        <f>'Lawrence''s projections'!AS$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0791943255405225</v>
+        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0715324112614439</v>
       </c>
       <c r="S7">
-        <f>'Lawrence''s projections'!AT$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0816390406495475</v>
+        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0739269102992843</v>
       </c>
       <c r="T7">
-        <f>'Lawrence''s projections'!AU$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0840561244585916</v>
+        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0762952386805076</v>
       </c>
       <c r="U7">
-        <f>'Lawrence''s projections'!AV$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0864467907709561</v>
+        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0788223009610056</v>
       </c>
       <c r="V7">
-        <f>'Lawrence''s projections'!AW$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0889976881512058</v>
+        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0809580740580407</v>
       </c>
       <c r="W7">
-        <f>'Lawrence''s projections'!AX$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0911536057319</v>
+        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0832548686158339</v>
       </c>
       <c r="X7">
-        <f>'Lawrence''s projections'!AY$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0934720635181054</v>
+        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0855300688719685</v>
       </c>
       <c r="Y7">
-        <f>'Lawrence''s projections'!AZ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.0957687233264952</v>
+        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0881325874051613</v>
       </c>
       <c r="Z7">
-        <f>'Lawrence''s projections'!BA$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.098395788658286</v>
+        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0900200207300772</v>
       </c>
       <c r="AA7">
-        <f>'Lawrence''s projections'!BB$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1003010241410363</v>
+        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0922368876869051</v>
       </c>
       <c r="AB7">
-        <f>'Lawrence''s projections'!BC$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1025388004539414</v>
+        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0944363921721576</v>
       </c>
       <c r="AC7">
-        <f>'Lawrence''s projections'!BD$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1047590505334812</v>
+        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0966195425906715</v>
       </c>
       <c r="AD7">
-        <f>'Lawrence''s projections'!BE$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1069627922957068</v>
+        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.0987873286013436</v>
       </c>
       <c r="AE7">
-        <f>'Lawrence''s projections'!BF$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.109151024733918</v>
+        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1009407216328408</v>
       </c>
       <c r="AF7">
-        <f>'Lawrence''s projections'!BG$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1113247284392385</v>
+        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1030806753873179</v>
       </c>
       <c r="AG7">
-        <f>'Lawrence''s projections'!BH$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1134848661090846</v>
+        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1052081263324405</v>
       </c>
       <c r="AH7">
-        <f>'Lawrence''s projections'!BI$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1156323830438288</v>
+        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.107323994182003</v>
       </c>
       <c r="AI7">
-        <f>'Lawrence''s projections'!BJ$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1177682076319513</v>
-      </c>
-      <c r="AJ7">
-        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AC$78</f>
-        <v>1.1198932518239673</v>
+        <f>'Lawrence''s projections'!BK$78/'Lawrence''s projections'!$AD$78</f>
+        <v>1.1094291823654294</v>
       </c>
     </row>
   </sheetData>
@@ -8170,21 +8081,21 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8208,14 +8119,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDDF5E3D-2090-4A5C-AE1D-CEA2430518B2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4CE8761-2154-40BE-8F39-A174DD695FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
@@ -8231,4 +8134,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CDDF5E3D-2090-4A5C-AE1D-CEA2430518B2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>